--- a/data/395_P_features_case.xlsx
+++ b/data/395_P_features_case.xlsx
@@ -426,7 +426,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R98"/>
+  <dimension ref="A1:R84"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -5174,790 +5174,6 @@
         <v>0.79895</v>
       </c>
     </row>
-    <row r="85">
-      <c r="A85" t="n">
-        <v>0.9999757567939455</v>
-      </c>
-      <c r="B85" t="n">
-        <v>43.54983292244773</v>
-      </c>
-      <c r="C85" t="n">
-        <v>-2.878409275742458e-05</v>
-      </c>
-      <c r="D85" t="n">
-        <v>-0.1393423362714281</v>
-      </c>
-      <c r="E85" t="n">
-        <v>7.629136067020698e-07</v>
-      </c>
-      <c r="F85" t="n">
-        <v>0.001117984645109506</v>
-      </c>
-      <c r="G85" t="n">
-        <v>7.382153686589833e-07</v>
-      </c>
-      <c r="H85" t="n">
-        <v>0.0001479673371994881</v>
-      </c>
-      <c r="I85" t="n">
-        <v>0.04888963490106894</v>
-      </c>
-      <c r="J85" t="n">
-        <v>2.067980945244712e-05</v>
-      </c>
-      <c r="K85" t="n">
-        <v>-0.0007934568952337269</v>
-      </c>
-      <c r="L85" t="n">
-        <v>0.000876570455605244</v>
-      </c>
-      <c r="M85" t="n">
-        <v>-6.338710583728297e-07</v>
-      </c>
-      <c r="N85" t="n">
-        <v>-4.100457320927454e-05</v>
-      </c>
-      <c r="O85" t="n">
-        <v>-0.0001729430349179025</v>
-      </c>
-      <c r="P85" t="n">
-        <v>0.0002977370384919861</v>
-      </c>
-      <c r="Q85" t="n">
-        <v>4719.163416832292</v>
-      </c>
-      <c r="R85" t="n">
-        <v>0.8125600000000001</v>
-      </c>
-    </row>
-    <row r="86">
-      <c r="A86" t="n">
-        <v>0.9999962079320034</v>
-      </c>
-      <c r="B86" t="n">
-        <v>43.63996732424289</v>
-      </c>
-      <c r="C86" t="n">
-        <v>-2.453104316412885e-05</v>
-      </c>
-      <c r="D86" t="n">
-        <v>-0.1428128612080965</v>
-      </c>
-      <c r="E86" t="n">
-        <v>8.14195236696408e-07</v>
-      </c>
-      <c r="F86" t="n">
-        <v>0.001024337181085884</v>
-      </c>
-      <c r="G86" t="n">
-        <v>1.04458935572727e-06</v>
-      </c>
-      <c r="H86" t="n">
-        <v>0.0001502801119782904</v>
-      </c>
-      <c r="I86" t="n">
-        <v>0.04486287377849126</v>
-      </c>
-      <c r="J86" t="n">
-        <v>3.638226947462386e-05</v>
-      </c>
-      <c r="K86" t="n">
-        <v>-0.0007452038989539934</v>
-      </c>
-      <c r="L86" t="n">
-        <v>0.0009737978831149906</v>
-      </c>
-      <c r="M86" t="n">
-        <v>7.989531267206232e-06</v>
-      </c>
-      <c r="N86" t="n">
-        <v>-4.044070354635183e-05</v>
-      </c>
-      <c r="O86" t="n">
-        <v>-0.0001378704302607164</v>
-      </c>
-      <c r="P86" t="n">
-        <v>0.0002979789283906423</v>
-      </c>
-      <c r="Q86" t="n">
-        <v>4722.930700892472</v>
-      </c>
-      <c r="R86" t="n">
-        <v>0.8261700000000001</v>
-      </c>
-    </row>
-    <row r="87">
-      <c r="A87" t="n">
-        <v>1.000016289416351</v>
-      </c>
-      <c r="B87" t="n">
-        <v>43.72651283937876</v>
-      </c>
-      <c r="C87" t="n">
-        <v>-1.307272679706673e-05</v>
-      </c>
-      <c r="D87" t="n">
-        <v>-0.1466670853312088</v>
-      </c>
-      <c r="E87" t="n">
-        <v>7.263934152448116e-07</v>
-      </c>
-      <c r="F87" t="n">
-        <v>0.0009309069276745787</v>
-      </c>
-      <c r="G87" t="n">
-        <v>7.179009478653528e-07</v>
-      </c>
-      <c r="H87" t="n">
-        <v>0.0001429170580253682</v>
-      </c>
-      <c r="I87" t="n">
-        <v>0.04079809989297863</v>
-      </c>
-      <c r="J87" t="n">
-        <v>2.542388355446312e-05</v>
-      </c>
-      <c r="K87" t="n">
-        <v>-0.0006966000469014765</v>
-      </c>
-      <c r="L87" t="n">
-        <v>0.0008828476053650828</v>
-      </c>
-      <c r="M87" t="n">
-        <v>1.648474809887293e-05</v>
-      </c>
-      <c r="N87" t="n">
-        <v>-3.986246461302858e-05</v>
-      </c>
-      <c r="O87" t="n">
-        <v>-0.0001059784171587739</v>
-      </c>
-      <c r="P87" t="n">
-        <v>0.0002895407071081298</v>
-      </c>
-      <c r="Q87" t="n">
-        <v>4726.556074914351</v>
-      </c>
-      <c r="R87" t="n">
-        <v>0.83999</v>
-      </c>
-    </row>
-    <row r="88">
-      <c r="A88" t="n">
-        <v>1.000023628167641</v>
-      </c>
-      <c r="B88" t="n">
-        <v>43.80778014275886</v>
-      </c>
-      <c r="C88" t="n">
-        <v>-2.332557865592163e-06</v>
-      </c>
-      <c r="D88" t="n">
-        <v>-0.1507918425853989</v>
-      </c>
-      <c r="E88" t="n">
-        <v>6.892991416719697e-07</v>
-      </c>
-      <c r="F88" t="n">
-        <v>0.0008510923159614723</v>
-      </c>
-      <c r="G88" t="n">
-        <v>-1.295025972236547e-07</v>
-      </c>
-      <c r="H88" t="n">
-        <v>0.0001469933780646277</v>
-      </c>
-      <c r="I88" t="n">
-        <v>0.0373349655524978</v>
-      </c>
-      <c r="J88" t="n">
-        <v>-8.501609093630871e-06</v>
-      </c>
-      <c r="K88" t="n">
-        <v>-0.0006476988226694185</v>
-      </c>
-      <c r="L88" t="n">
-        <v>0.0008853575109808381</v>
-      </c>
-      <c r="M88" t="n">
-        <v>2.337524321870342e-05</v>
-      </c>
-      <c r="N88" t="n">
-        <v>-3.931677864757322e-05</v>
-      </c>
-      <c r="O88" t="n">
-        <v>-8.025870897602131e-05</v>
-      </c>
-      <c r="P88" t="n">
-        <v>0.0002892792688173876</v>
-      </c>
-      <c r="Q88" t="n">
-        <v>4729.991483318037</v>
-      </c>
-      <c r="R88" t="n">
-        <v>0.8538100000000001</v>
-      </c>
-    </row>
-    <row r="89">
-      <c r="A89" t="n">
-        <v>1.00003080294691</v>
-      </c>
-      <c r="B89" t="n">
-        <v>43.88371462083859</v>
-      </c>
-      <c r="C89" t="n">
-        <v>6.322262580266262e-06</v>
-      </c>
-      <c r="D89" t="n">
-        <v>-0.1551103039368916</v>
-      </c>
-      <c r="E89" t="n">
-        <v>6.659179424881322e-07</v>
-      </c>
-      <c r="F89" t="n">
-        <v>0.0007890247825364065</v>
-      </c>
-      <c r="G89" t="n">
-        <v>-9.266467886337603e-07</v>
-      </c>
-      <c r="H89" t="n">
-        <v>0.0001505092227655229</v>
-      </c>
-      <c r="I89" t="n">
-        <v>0.03464803933911121</v>
-      </c>
-      <c r="J89" t="n">
-        <v>-4.060551119249199e-05</v>
-      </c>
-      <c r="K89" t="n">
-        <v>-0.0005974237489990634</v>
-      </c>
-      <c r="L89" t="n">
-        <v>0.0008928045230860375</v>
-      </c>
-      <c r="M89" t="n">
-        <v>2.911749472609856e-05</v>
-      </c>
-      <c r="N89" t="n">
-        <v>-3.879438753207535e-05</v>
-      </c>
-      <c r="O89" t="n">
-        <v>-6.17455315663421e-05</v>
-      </c>
-      <c r="P89" t="n">
-        <v>0.0002851711577837181</v>
-      </c>
-      <c r="Q89" t="n">
-        <v>4733.209628983966</v>
-      </c>
-      <c r="R89" t="n">
-        <v>0.8676299999999999</v>
-      </c>
-    </row>
-    <row r="90">
-      <c r="A90" t="n">
-        <v>1.000038538441693</v>
-      </c>
-      <c r="B90" t="n">
-        <v>43.95417466141753</v>
-      </c>
-      <c r="C90" t="n">
-        <v>9.877313924483558e-06</v>
-      </c>
-      <c r="D90" t="n">
-        <v>-0.1595440305820903</v>
-      </c>
-      <c r="E90" t="n">
-        <v>6.602146634376792e-07</v>
-      </c>
-      <c r="F90" t="n">
-        <v>0.0007218288251903451</v>
-      </c>
-      <c r="G90" t="n">
-        <v>-1.341400615507108e-06</v>
-      </c>
-      <c r="H90" t="n">
-        <v>0.0001522431466404926</v>
-      </c>
-      <c r="I90" t="n">
-        <v>0.03173150473374454</v>
-      </c>
-      <c r="J90" t="n">
-        <v>-5.644916856588174e-05</v>
-      </c>
-      <c r="K90" t="n">
-        <v>-0.0005442442799080681</v>
-      </c>
-      <c r="L90" t="n">
-        <v>0.0008904581152295223</v>
-      </c>
-      <c r="M90" t="n">
-        <v>3.387318669084999e-05</v>
-      </c>
-      <c r="N90" t="n">
-        <v>-3.813555475830212e-05</v>
-      </c>
-      <c r="O90" t="n">
-        <v>-4.827068236037851e-05</v>
-      </c>
-      <c r="P90" t="n">
-        <v>0.000275819789117768</v>
-      </c>
-      <c r="Q90" t="n">
-        <v>4736.200723229032</v>
-      </c>
-      <c r="R90" t="n">
-        <v>0.88145</v>
-      </c>
-    </row>
-    <row r="91">
-      <c r="A91" t="n">
-        <v>1.000047639820548</v>
-      </c>
-      <c r="B91" t="n">
-        <v>44.01892062104243</v>
-      </c>
-      <c r="C91" t="n">
-        <v>3.963366767078769e-06</v>
-      </c>
-      <c r="D91" t="n">
-        <v>-0.1640127142850511</v>
-      </c>
-      <c r="E91" t="n">
-        <v>7.13363577350705e-07</v>
-      </c>
-      <c r="F91" t="n">
-        <v>0.0006513402872108632</v>
-      </c>
-      <c r="G91" t="n">
-        <v>-1.248498192914374e-06</v>
-      </c>
-      <c r="H91" t="n">
-        <v>0.0001611904757437441</v>
-      </c>
-      <c r="I91" t="n">
-        <v>0.02866080222472695</v>
-      </c>
-      <c r="J91" t="n">
-        <v>-5.055692381248487e-05</v>
-      </c>
-      <c r="K91" t="n">
-        <v>-0.0004866708031049507</v>
-      </c>
-      <c r="L91" t="n">
-        <v>0.0009706789942300832</v>
-      </c>
-      <c r="M91" t="n">
-        <v>3.753662227332293e-05</v>
-      </c>
-      <c r="N91" t="n">
-        <v>-3.718528076303567e-05</v>
-      </c>
-      <c r="O91" t="n">
-        <v>-4.00651763976011e-05</v>
-      </c>
-      <c r="P91" t="n">
-        <v>0.0002701935024895367</v>
-      </c>
-      <c r="Q91" t="n">
-        <v>4738.949746047539</v>
-      </c>
-      <c r="R91" t="n">
-        <v>0.8952700000000001</v>
-      </c>
-    </row>
-    <row r="92">
-      <c r="A92" t="n">
-        <v>1.000057152276115</v>
-      </c>
-      <c r="B92" t="n">
-        <v>44.07792608677649</v>
-      </c>
-      <c r="C92" t="n">
-        <v>7.476800331922215e-08</v>
-      </c>
-      <c r="D92" t="n">
-        <v>-0.1684287676849829</v>
-      </c>
-      <c r="E92" t="n">
-        <v>6.298611532202442e-07</v>
-      </c>
-      <c r="F92" t="n">
-        <v>0.0005767144962990484</v>
-      </c>
-      <c r="G92" t="n">
-        <v>-1.059486337385334e-06</v>
-      </c>
-      <c r="H92" t="n">
-        <v>0.0001573794284683546</v>
-      </c>
-      <c r="I92" t="n">
-        <v>0.02537215577807344</v>
-      </c>
-      <c r="J92" t="n">
-        <v>-3.978414196695559e-05</v>
-      </c>
-      <c r="K92" t="n">
-        <v>-0.0004241920203238837</v>
-      </c>
-      <c r="L92" t="n">
-        <v>0.0008849922668303839</v>
-      </c>
-      <c r="M92" t="n">
-        <v>4.061059804482713e-05</v>
-      </c>
-      <c r="N92" t="n">
-        <v>-3.58787680939611e-05</v>
-      </c>
-      <c r="O92" t="n">
-        <v>-3.42134206973947e-05</v>
-      </c>
-      <c r="P92" t="n">
-        <v>0.000255296434226077</v>
-      </c>
-      <c r="Q92" t="n">
-        <v>4741.454856576948</v>
-      </c>
-      <c r="R92" t="n">
-        <v>0.90922</v>
-      </c>
-    </row>
-    <row r="93">
-      <c r="A93" t="n">
-        <v>1.000068132668272</v>
-      </c>
-      <c r="B93" t="n">
-        <v>44.1302946352355</v>
-      </c>
-      <c r="C93" t="n">
-        <v>5.792073702286574e-06</v>
-      </c>
-      <c r="D93" t="n">
-        <v>-0.172590363124132</v>
-      </c>
-      <c r="E93" t="n">
-        <v>6.042037283487272e-07</v>
-      </c>
-      <c r="F93" t="n">
-        <v>0.0005019383273510872</v>
-      </c>
-      <c r="G93" t="n">
-        <v>-5.640980501074993e-07</v>
-      </c>
-      <c r="H93" t="n">
-        <v>0.0001621602453926459</v>
-      </c>
-      <c r="I93" t="n">
-        <v>0.02208919506015309</v>
-      </c>
-      <c r="J93" t="n">
-        <v>-1.513884785638753e-05</v>
-      </c>
-      <c r="K93" t="n">
-        <v>-0.0003597021993745142</v>
-      </c>
-      <c r="L93" t="n">
-        <v>0.000887272804071271</v>
-      </c>
-      <c r="M93" t="n">
-        <v>4.088952686543337e-05</v>
-      </c>
-      <c r="N93" t="n">
-        <v>-3.480239798944995e-05</v>
-      </c>
-      <c r="O93" t="n">
-        <v>-2.764636598181672e-05</v>
-      </c>
-      <c r="P93" t="n">
-        <v>0.0002481528986203369</v>
-      </c>
-      <c r="Q93" t="n">
-        <v>4743.675009215097</v>
-      </c>
-      <c r="R93" t="n">
-        <v>0.92317</v>
-      </c>
-    </row>
-    <row r="94">
-      <c r="A94" t="n">
-        <v>1.000075636681573</v>
-      </c>
-      <c r="B94" t="n">
-        <v>44.17575325841837</v>
-      </c>
-      <c r="C94" t="n">
-        <v>1.511123369437092e-05</v>
-      </c>
-      <c r="D94" t="n">
-        <v>-0.1762826861327702</v>
-      </c>
-      <c r="E94" t="n">
-        <v>5.936932887732054e-07</v>
-      </c>
-      <c r="F94" t="n">
-        <v>0.0004323149505487845</v>
-      </c>
-      <c r="G94" t="n">
-        <v>-7.54636025398378e-09</v>
-      </c>
-      <c r="H94" t="n">
-        <v>0.0001646960451231781</v>
-      </c>
-      <c r="I94" t="n">
-        <v>0.01902421112412058</v>
-      </c>
-      <c r="J94" t="n">
-        <v>1.225176731540409e-05</v>
-      </c>
-      <c r="K94" t="n">
-        <v>-0.0002949165338217218</v>
-      </c>
-      <c r="L94" t="n">
-        <v>0.0008909777279300284</v>
-      </c>
-      <c r="M94" t="n">
-        <v>3.783901149194473e-05</v>
-      </c>
-      <c r="N94" t="n">
-        <v>-3.390618715354859e-05</v>
-      </c>
-      <c r="O94" t="n">
-        <v>-2.039404568366427e-05</v>
-      </c>
-      <c r="P94" t="n">
-        <v>0.0002378098183455679</v>
-      </c>
-      <c r="Q94" t="n">
-        <v>4745.607263414128</v>
-      </c>
-      <c r="R94" t="n">
-        <v>0.9371200000000001</v>
-      </c>
-    </row>
-    <row r="95">
-      <c r="A95" t="n">
-        <v>1.000082738791423</v>
-      </c>
-      <c r="B95" t="n">
-        <v>44.21395065709844</v>
-      </c>
-      <c r="C95" t="n">
-        <v>2.174662599026593e-05</v>
-      </c>
-      <c r="D95" t="n">
-        <v>-0.1794397732166291</v>
-      </c>
-      <c r="E95" t="n">
-        <v>6.000716795889232e-07</v>
-      </c>
-      <c r="F95" t="n">
-        <v>0.000348435888500109</v>
-      </c>
-      <c r="G95" t="n">
-        <v>5.102502555053888e-07</v>
-      </c>
-      <c r="H95" t="n">
-        <v>0.0001654986797677832</v>
-      </c>
-      <c r="I95" t="n">
-        <v>0.01531128994365413</v>
-      </c>
-      <c r="J95" t="n">
-        <v>3.783586812021429e-05</v>
-      </c>
-      <c r="K95" t="n">
-        <v>-0.0002299156295783645</v>
-      </c>
-      <c r="L95" t="n">
-        <v>0.0008892416267725413</v>
-      </c>
-      <c r="M95" t="n">
-        <v>3.155341608691186e-05</v>
-      </c>
-      <c r="N95" t="n">
-        <v>-3.310981558395125e-05</v>
-      </c>
-      <c r="O95" t="n">
-        <v>-6.899094064576725e-06</v>
-      </c>
-      <c r="P95" t="n">
-        <v>0.0002243749589498927</v>
-      </c>
-      <c r="Q95" t="n">
-        <v>4747.22992665736</v>
-      </c>
-      <c r="R95" t="n">
-        <v>0.9510700000000001</v>
-      </c>
-    </row>
-    <row r="96">
-      <c r="A96" t="n">
-        <v>1.000090536062378</v>
-      </c>
-      <c r="B96" t="n">
-        <v>44.24446576112577</v>
-      </c>
-      <c r="C96" t="n">
-        <v>1.926477412718686e-05</v>
-      </c>
-      <c r="D96" t="n">
-        <v>-0.18214439255023</v>
-      </c>
-      <c r="E96" t="n">
-        <v>6.664459366207358e-07</v>
-      </c>
-      <c r="F96" t="n">
-        <v>0.0002557520892923833</v>
-      </c>
-      <c r="G96" t="n">
-        <v>1.046791306544118e-06</v>
-      </c>
-      <c r="H96" t="n">
-        <v>0.0001761140694950244</v>
-      </c>
-      <c r="I96" t="n">
-        <v>0.01119022243644097</v>
-      </c>
-      <c r="J96" t="n">
-        <v>6.429678940487287e-05</v>
-      </c>
-      <c r="K96" t="n">
-        <v>-0.0001635804483054656</v>
-      </c>
-      <c r="L96" t="n">
-        <v>0.000968857789148798</v>
-      </c>
-      <c r="M96" t="n">
-        <v>2.289176216346718e-05</v>
-      </c>
-      <c r="N96" t="n">
-        <v>-3.238810553899416e-05</v>
-      </c>
-      <c r="O96" t="n">
-        <v>1.067395375304979e-05</v>
-      </c>
-      <c r="P96" t="n">
-        <v>0.0002187307605357076</v>
-      </c>
-      <c r="Q96" t="n">
-        <v>4748.521385183447</v>
-      </c>
-      <c r="R96" t="n">
-        <v>0.9650200000000001</v>
-      </c>
-    </row>
-    <row r="97">
-      <c r="A97" t="n">
-        <v>1.000096460698314</v>
-      </c>
-      <c r="B97" t="n">
-        <v>44.26678186593026</v>
-      </c>
-      <c r="C97" t="n">
-        <v>1.035882889003591e-05</v>
-      </c>
-      <c r="D97" t="n">
-        <v>-0.1844857266464091</v>
-      </c>
-      <c r="E97" t="n">
-        <v>5.939478775829033e-07</v>
-      </c>
-      <c r="F97" t="n">
-        <v>0.0001534003121297513</v>
-      </c>
-      <c r="G97" t="n">
-        <v>1.195509915004016e-06</v>
-      </c>
-      <c r="H97" t="n">
-        <v>0.000176049974907487</v>
-      </c>
-      <c r="I97" t="n">
-        <v>0.006626915137533921</v>
-      </c>
-      <c r="J97" t="n">
-        <v>7.474052758061639e-05</v>
-      </c>
-      <c r="K97" t="n">
-        <v>-9.463087118770625e-05</v>
-      </c>
-      <c r="L97" t="n">
-        <v>0.0008893830297079844</v>
-      </c>
-      <c r="M97" t="n">
-        <v>1.324251818622354e-05</v>
-      </c>
-      <c r="N97" t="n">
-        <v>-3.141050021155113e-05</v>
-      </c>
-      <c r="O97" t="n">
-        <v>3.366038367351874e-05</v>
-      </c>
-      <c r="P97" t="n">
-        <v>0.0002069024640857652</v>
-      </c>
-      <c r="Q97" t="n">
-        <v>4749.463021166238</v>
-      </c>
-      <c r="R97" t="n">
-        <v>0.97901</v>
-      </c>
-    </row>
-    <row r="98">
-      <c r="A98" t="n">
-        <v>1.000098102855177</v>
-      </c>
-      <c r="B98" t="n">
-        <v>44.28031710653723</v>
-      </c>
-      <c r="C98" t="n">
-        <v>-1.630621551507891e-06</v>
-      </c>
-      <c r="D98" t="n">
-        <v>-0.1865455467963664</v>
-      </c>
-      <c r="E98" t="n">
-        <v>5.739278632145111e-07</v>
-      </c>
-      <c r="F98" t="n">
-        <v>5.926713159429681e-05</v>
-      </c>
-      <c r="G98" t="n">
-        <v>8.493705565287809e-07</v>
-      </c>
-      <c r="H98" t="n">
-        <v>0.0001831857572079097</v>
-      </c>
-      <c r="I98" t="n">
-        <v>0.002439762105406171</v>
-      </c>
-      <c r="J98" t="n">
-        <v>6.415273500482549e-05</v>
-      </c>
-      <c r="K98" t="n">
-        <v>-2.305057813806314e-05</v>
-      </c>
-      <c r="L98" t="n">
-        <v>0.0008912617940889806</v>
-      </c>
-      <c r="M98" t="n">
-        <v>3.898238832806188e-06</v>
-      </c>
-      <c r="N98" t="n">
-        <v>-3.02801954607891e-05</v>
-      </c>
-      <c r="O98" t="n">
-        <v>5.422632700935105e-05</v>
-      </c>
-      <c r="P98" t="n">
-        <v>0.0002032883592398059</v>
-      </c>
-      <c r="Q98" t="n">
-        <v>4750.033728473872</v>
-      </c>
-      <c r="R98" t="n">
-        <v>0.993</v>
-      </c>
-    </row>
   </sheetData>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>
